--- a/data/Cerrillos.xlsx
+++ b/data/Cerrillos.xlsx
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">

--- a/data/Cerrillos.xlsx
+++ b/data/Cerrillos.xlsx
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">

--- a/data/Cerrillos.xlsx
+++ b/data/Cerrillos.xlsx
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista del Sol S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">

--- a/data/Cerrillos.xlsx
+++ b/data/Cerrillos.xlsx
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">

--- a/data/Cerrillos.xlsx
+++ b/data/Cerrillos.xlsx
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">

--- a/data/Cerrillos.xlsx
+++ b/data/Cerrillos.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12/07/2022</t>
+          <t>18/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">

--- a/data/Cerrillos.xlsx
+++ b/data/Cerrillos.xlsx
@@ -1399,7 +1399,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SODIMAC S.A.</t>
+          <t>Falabella Inmobiliario S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -9847,7 +9847,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>SODIMAC S.A.</t>
+          <t>Falabella Inmobiliario S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">

--- a/data/Cerrillos.xlsx
+++ b/data/Cerrillos.xlsx
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Sociedad Concesionaria Autopista San Antonio-Stgo S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">

--- a/data/Cerrillos.xlsx
+++ b/data/Cerrillos.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Cerrillos.xlsx
+++ b/data/Cerrillos.xlsx
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">

--- a/data/Cerrillos.xlsx
+++ b/data/Cerrillos.xlsx
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">

--- a/data/Cerrillos.xlsx
+++ b/data/Cerrillos.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>05/10/2022</t>
+          <t>18/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Cerrillos.xlsx
+++ b/data/Cerrillos.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/11/2022</t>
+          <t>18/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Cerrillos.xlsx
+++ b/data/Cerrillos.xlsx
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">

--- a/data/Cerrillos.xlsx
+++ b/data/Cerrillos.xlsx
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">

--- a/data/Cerrillos.xlsx
+++ b/data/Cerrillos.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>02/11/2022</t>
+          <t>08/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Cerrillos.xlsx
+++ b/data/Cerrillos.xlsx
@@ -8743,7 +8743,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -10039,7 +10039,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">

--- a/data/Cerrillos.xlsx
+++ b/data/Cerrillos.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ENEL DISTRIBUCIÓN S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">

--- a/data/Cerrillos.xlsx
+++ b/data/Cerrillos.xlsx
@@ -8935,7 +8935,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>gasmar s.a.</t>
+          <t>Gasmar SpA.</t>
         </is>
       </c>
       <c r="F179" t="n">

--- a/data/Cerrillos.xlsx
+++ b/data/Cerrillos.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">

--- a/data/Cerrillos.xlsx
+++ b/data/Cerrillos.xlsx
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">

--- a/data/Cerrillos.xlsx
+++ b/data/Cerrillos.xlsx
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">

--- a/data/Cerrillos.xlsx
+++ b/data/Cerrillos.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/09/2023</t>
+          <t>21/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
